--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanzr/Desktop/Series de Tiempo/Situación Problema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanzr/Desktop/Series de Tiempo/Archivos Bloomberg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7C01D3-5C49-BB4E-8E83-47A19B073FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282EB49-EC51-D645-832C-A979233FBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BDDD3284-2023-B34B-8C6B-3A25930C85D7}"/>
+    <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{1BBDBCCC-952F-024E-89A8-EA904D806349}"/>
   </bookViews>
   <sheets>
-    <sheet name="1 min 1 dia" sheetId="1" r:id="rId1"/>
-    <sheet name="3 min 1 dia" sheetId="2" r:id="rId2"/>
+    <sheet name="NVDA 1 Min" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
   <si>
     <t>05/23 07:30</t>
   </si>
@@ -1885,13 +1884,19 @@
   </si>
   <si>
     <t>05/27 11:15</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1901,13 +1906,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1933,11 +1931,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,841 +2267,841 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE21BFF-0C41-C448-AA2D-493F373647C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9D4C6C-BCB0-A542-98B8-DF9C8EF0C230}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E616"/>
+  <dimension ref="A1:E617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E336"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.19921875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B1" s="1">
-        <v>135.54820000000001</v>
+      <c r="A1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" t="s">
+        <v>617</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B2" s="1">
-        <v>135.54</v>
+        <v>135.54820000000001</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B3" s="1">
-        <v>135.58500000000001</v>
+        <v>135.54</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B4" s="1">
-        <v>135.47499999999999</v>
+        <v>135.58500000000001</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B5" s="1">
-        <v>135.465</v>
+        <v>135.47499999999999</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B6" s="1">
-        <v>135.44499999999999</v>
+        <v>135.465</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B7" s="1">
-        <v>135.4701</v>
+        <v>135.44499999999999</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B8" s="1">
-        <v>135.5744</v>
+        <v>135.4701</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B9" s="1">
-        <v>135.53</v>
+        <v>135.5744</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B10" s="1">
-        <v>135.57</v>
+        <v>135.53</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B11" s="1">
-        <v>135.5497</v>
+        <v>135.57</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B12" s="1">
-        <v>135.535</v>
+        <v>135.5497</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B13" s="1">
-        <v>135.57499999999999</v>
+        <v>135.535</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B14" s="1">
-        <v>135.52500000000001</v>
+        <v>135.57499999999999</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B15" s="1">
-        <v>135.4418</v>
+        <v>135.52500000000001</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B16" s="1">
-        <v>135.33000000000001</v>
+        <v>135.4418</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B17" s="1">
-        <v>135.19999999999999</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B18" s="1">
-        <v>135.2901</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B19" s="1">
-        <v>135.23009999999999</v>
+        <v>135.2901</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B20" s="1">
-        <v>135.26499999999999</v>
+        <v>135.23009999999999</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B21" s="1">
-        <v>135.33000000000001</v>
+        <v>135.26499999999999</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B22" s="1">
-        <v>135.38</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B23" s="1">
-        <v>135.4</v>
+        <v>135.38</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B24" s="1">
-        <v>135.435</v>
+        <v>135.4</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B25" s="1">
-        <v>135.33500000000001</v>
+        <v>135.435</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B26" s="1">
-        <v>135.41</v>
+        <v>135.33500000000001</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B27" s="1">
-        <v>135.4212</v>
+        <v>135.41</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B28" s="1">
-        <v>135.435</v>
+        <v>135.4212</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B29" s="1">
-        <v>135.46</v>
+        <v>135.435</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B30" s="1">
-        <v>135.42500000000001</v>
+        <v>135.46</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B31" s="1">
-        <v>135.44</v>
+        <v>135.42500000000001</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B32" s="1">
-        <v>135.52500000000001</v>
+        <v>135.44</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B33" s="1">
-        <v>135.52000000000001</v>
+        <v>135.52500000000001</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B34" s="1">
-        <v>135.58160000000001</v>
+        <v>135.52000000000001</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B35" s="1">
-        <v>135.5701</v>
+        <v>135.58160000000001</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B36" s="1">
-        <v>135.57</v>
+        <v>135.5701</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B37" s="1">
-        <v>135.55000000000001</v>
+        <v>135.57</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B38" s="1">
-        <v>135.45849999999999</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B39" s="1">
-        <v>135.36000000000001</v>
+        <v>135.45849999999999</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B40" s="1">
-        <v>135.41</v>
+        <v>135.36000000000001</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B41" s="1">
-        <v>135.30000000000001</v>
+        <v>135.41</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B42" s="1">
-        <v>135.28</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B43" s="1">
-        <v>135.31</v>
+        <v>135.28</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B44" s="1">
-        <v>135.34</v>
+        <v>135.31</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B45" s="1">
-        <v>135.315</v>
+        <v>135.34</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B46" s="1">
-        <v>135.34989999999999</v>
+        <v>135.315</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B47" s="1">
-        <v>135.255</v>
+        <v>135.34989999999999</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B48" s="1">
-        <v>135.26</v>
+        <v>135.255</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B49" s="1">
-        <v>135.375</v>
+        <v>135.26</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B50" s="1">
-        <v>135.28</v>
+        <v>135.375</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B51" s="1">
-        <v>135.23079999999999</v>
+        <v>135.28</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B52" s="1">
-        <v>135.27000000000001</v>
+        <v>135.23079999999999</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B53" s="1">
-        <v>135.29</v>
+        <v>135.27000000000001</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B54" s="1">
-        <v>135.22110000000001</v>
+        <v>135.29</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B55" s="1">
-        <v>135.35</v>
+        <v>135.22110000000001</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B56" s="1">
-        <v>135.35499999999999</v>
+        <v>135.35</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B57" s="1">
-        <v>135.345</v>
+        <v>135.35499999999999</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B58" s="1">
-        <v>135.375</v>
+        <v>135.345</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B59" s="1">
-        <v>135.435</v>
+        <v>135.375</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B60" s="1">
-        <v>135.375</v>
+        <v>135.435</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B61" s="1">
-        <v>135.32</v>
+        <v>135.375</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B62" s="1">
-        <v>135.34</v>
+        <v>135.32</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B63" s="1">
-        <v>135.28</v>
+        <v>135.34</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B64" s="1">
-        <v>135.2799</v>
+        <v>135.28</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B65" s="1">
-        <v>135.25020000000001</v>
+        <v>135.2799</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B66" s="1">
-        <v>135.2919</v>
+        <v>135.25020000000001</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B67" s="1">
-        <v>135.29</v>
+        <v>135.2919</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B68" s="1">
-        <v>135.38999999999999</v>
+        <v>135.29</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B69" s="1">
-        <v>135.315</v>
+        <v>135.38999999999999</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B70" s="1">
-        <v>135.34180000000001</v>
+        <v>135.315</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B71" s="1">
-        <v>135.2499</v>
+        <v>135.34180000000001</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B72" s="1">
-        <v>135.245</v>
+        <v>135.2499</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B73" s="1">
-        <v>135.285</v>
+        <v>135.245</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B74" s="1">
-        <v>135.21</v>
+        <v>135.285</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B75" s="1">
-        <v>135.24</v>
+        <v>135.21</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B76" s="1">
-        <v>135.2313</v>
+        <v>135.24</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B77" s="1">
-        <v>135.05500000000001</v>
+        <v>135.2313</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B78" s="1">
-        <v>135</v>
+        <v>135.05500000000001</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B79" s="1">
-        <v>134.97999999999999</v>
+        <v>135</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" s="1">
-        <v>134.94499999999999</v>
+        <v>134.97999999999999</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="1">
-        <v>134.995</v>
+        <v>134.94499999999999</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B82" s="1">
-        <v>135.03</v>
+        <v>134.995</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B83" s="1">
         <v>135.03</v>
@@ -3115,587 +3111,587 @@
     </row>
     <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B84" s="1">
-        <v>134.9701</v>
+        <v>135.03</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B85" s="1">
-        <v>134.96019999999999</v>
+        <v>134.9701</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B86" s="1">
-        <v>135</v>
+        <v>134.96019999999999</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B87" s="1">
-        <v>134.96</v>
+        <v>135</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B88" s="1">
-        <v>135.00559999999999</v>
+        <v>134.96</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B89" s="1">
-        <v>134.92500000000001</v>
+        <v>135.00559999999999</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B90" s="1">
-        <v>134.97229999999999</v>
+        <v>134.92500000000001</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B91" s="1">
-        <v>135.035</v>
+        <v>134.97229999999999</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B92" s="1">
-        <v>135.04159999999999</v>
+        <v>135.035</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B93" s="1">
-        <v>135.05009999999999</v>
+        <v>135.04159999999999</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B94" s="1">
-        <v>135</v>
+        <v>135.05009999999999</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B95" s="1">
-        <v>134.97499999999999</v>
+        <v>135</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B96" s="1">
-        <v>134.94</v>
+        <v>134.97499999999999</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B97" s="1">
-        <v>135.04839999999999</v>
+        <v>134.94</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B98" s="1">
-        <v>135.035</v>
+        <v>135.04839999999999</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B99" s="1">
-        <v>135.08000000000001</v>
+        <v>135.035</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B100" s="1">
-        <v>135.095</v>
+        <v>135.08000000000001</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B101" s="1">
-        <v>135.035</v>
+        <v>135.095</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B102" s="1">
-        <v>135.08500000000001</v>
+        <v>135.035</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B103" s="1">
-        <v>135.19</v>
+        <v>135.08500000000001</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B104" s="1">
-        <v>135.155</v>
+        <v>135.19</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B105" s="1">
-        <v>135.245</v>
+        <v>135.155</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B106" s="1">
-        <v>135.095</v>
+        <v>135.245</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B107" s="1">
-        <v>135.20500000000001</v>
+        <v>135.095</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B108" s="1">
-        <v>135.27000000000001</v>
+        <v>135.20500000000001</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B109" s="1">
-        <v>135.1601</v>
+        <v>135.27000000000001</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B110" s="1">
-        <v>135.22499999999999</v>
+        <v>135.1601</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B111" s="1">
-        <v>135.23500000000001</v>
+        <v>135.22499999999999</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B112" s="1">
-        <v>135.22999999999999</v>
+        <v>135.23500000000001</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B113" s="1">
-        <v>135.04499999999999</v>
+        <v>135.22999999999999</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B114" s="1">
-        <v>135.07499999999999</v>
+        <v>135.04499999999999</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B115" s="1">
-        <v>135.16499999999999</v>
+        <v>135.07499999999999</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B116" s="1">
-        <v>135.06010000000001</v>
+        <v>135.16499999999999</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B117" s="1">
-        <v>135.155</v>
+        <v>135.06010000000001</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B118" s="1">
-        <v>135.285</v>
+        <v>135.155</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B119" s="1">
-        <v>135.27869999999999</v>
+        <v>135.285</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B120" s="1">
-        <v>135.2518</v>
+        <v>135.27869999999999</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B121" s="1">
-        <v>135.14500000000001</v>
+        <v>135.2518</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B122" s="1">
-        <v>135.18029999999999</v>
+        <v>135.14500000000001</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B123" s="1">
-        <v>135.14500000000001</v>
+        <v>135.18029999999999</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B124" s="1">
-        <v>135.02000000000001</v>
+        <v>135.14500000000001</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B125" s="1">
-        <v>134.99459999999999</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B126" s="1">
-        <v>135</v>
+        <v>134.99459999999999</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B127" s="1">
-        <v>134.99</v>
+        <v>135</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B128" s="1">
-        <v>135.10990000000001</v>
+        <v>134.99</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B129" s="1">
-        <v>135.10169999999999</v>
+        <v>135.10990000000001</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B130" s="1">
-        <v>135.155</v>
+        <v>135.10169999999999</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B131" s="1">
-        <v>135.07499999999999</v>
+        <v>135.155</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B132" s="1">
-        <v>135.20500000000001</v>
+        <v>135.07499999999999</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B133" s="1">
-        <v>135.27500000000001</v>
+        <v>135.20500000000001</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B134" s="1">
-        <v>135.36009999999999</v>
+        <v>135.27500000000001</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B135" s="1">
-        <v>135.35499999999999</v>
+        <v>135.36009999999999</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B136" s="1">
-        <v>135.32499999999999</v>
+        <v>135.35499999999999</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B137" s="1">
-        <v>135.22190000000001</v>
+        <v>135.32499999999999</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B138" s="1">
-        <v>135.19</v>
+        <v>135.22190000000001</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B139" s="1">
-        <v>135.19990000000001</v>
+        <v>135.19</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B140" s="1">
-        <v>135.22</v>
+        <v>135.19990000000001</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B141" s="1">
-        <v>135.26499999999999</v>
+        <v>135.22</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B142" s="1">
         <v>135.26499999999999</v>
@@ -3705,607 +3701,607 @@
     </row>
     <row r="143" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B143" s="1">
-        <v>135.3287</v>
+        <v>135.26499999999999</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B144" s="1">
-        <v>135.32499999999999</v>
+        <v>135.3287</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B145" s="1">
-        <v>135.29150000000001</v>
+        <v>135.32499999999999</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B146" s="1">
-        <v>135.33500000000001</v>
+        <v>135.29150000000001</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B147" s="1">
-        <v>135.375</v>
+        <v>135.33500000000001</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B148" s="1">
-        <v>135.5102</v>
+        <v>135.375</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B149" s="1">
-        <v>135.44499999999999</v>
+        <v>135.5102</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B150" s="1">
-        <v>135.47499999999999</v>
+        <v>135.44499999999999</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B151" s="1">
-        <v>135.41550000000001</v>
+        <v>135.47499999999999</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B152" s="1">
-        <v>135.36109999999999</v>
+        <v>135.41550000000001</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B153" s="1">
-        <v>135.31</v>
+        <v>135.36109999999999</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B154" s="1">
-        <v>135.345</v>
+        <v>135.31</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B155" s="1">
-        <v>135.2115</v>
+        <v>135.345</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B156" s="1">
-        <v>135.26</v>
+        <v>135.2115</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B157" s="1">
-        <v>135.13999999999999</v>
+        <v>135.26</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B158" s="1">
-        <v>135.02000000000001</v>
+        <v>135.13999999999999</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B159" s="1">
-        <v>135.08000000000001</v>
+        <v>135.02000000000001</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B160" s="1">
-        <v>135.06</v>
+        <v>135.08000000000001</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B161" s="1">
-        <v>135.29499999999999</v>
+        <v>135.06</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B162" s="1">
-        <v>135.36179999999999</v>
+        <v>135.29499999999999</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B163" s="1">
-        <v>135.31</v>
+        <v>135.36179999999999</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B164" s="1">
-        <v>135.41800000000001</v>
+        <v>135.31</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B165" s="1">
-        <v>135.34989999999999</v>
+        <v>135.41800000000001</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B166" s="1">
-        <v>135.285</v>
+        <v>135.34989999999999</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B167" s="1">
-        <v>135.3115</v>
+        <v>135.285</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B168" s="1">
-        <v>135.34</v>
+        <v>135.3115</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B169" s="1">
-        <v>135.20009999999999</v>
+        <v>135.34</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B170" s="1">
-        <v>135.09010000000001</v>
+        <v>135.20009999999999</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B171" s="1">
-        <v>135.2002</v>
+        <v>135.09010000000001</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B172" s="1">
-        <v>135.22999999999999</v>
+        <v>135.2002</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B173" s="1">
-        <v>135.22</v>
+        <v>135.22999999999999</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B174" s="1">
-        <v>135.095</v>
+        <v>135.22</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B175" s="1">
-        <v>135.1454</v>
+        <v>135.095</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B176" s="1">
-        <v>135.19499999999999</v>
+        <v>135.1454</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B177" s="1">
-        <v>135.1601</v>
+        <v>135.19499999999999</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B178" s="1">
-        <v>135.185</v>
+        <v>135.1601</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B179" s="1">
-        <v>134.97999999999999</v>
+        <v>135.185</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B180" s="1">
-        <v>134.8399</v>
+        <v>134.97999999999999</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B181" s="1">
-        <v>134.78649999999999</v>
+        <v>134.8399</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B182" s="1">
-        <v>134.83500000000001</v>
+        <v>134.78649999999999</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B183" s="1">
-        <v>134.91999999999999</v>
+        <v>134.83500000000001</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B184" s="1">
-        <v>134.94499999999999</v>
+        <v>134.91999999999999</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B185" s="1">
-        <v>134.86500000000001</v>
+        <v>134.94499999999999</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B186" s="1">
-        <v>134.965</v>
+        <v>134.86500000000001</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B187" s="1">
-        <v>134.99</v>
+        <v>134.965</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B188" s="1">
-        <v>134.94499999999999</v>
+        <v>134.99</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B189" s="1">
-        <v>134.82</v>
+        <v>134.94499999999999</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B190" s="1">
-        <v>134.95500000000001</v>
+        <v>134.82</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B191" s="1">
-        <v>134.81700000000001</v>
+        <v>134.95500000000001</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B192" s="1">
-        <v>134.76</v>
+        <v>134.81700000000001</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B193" s="1">
-        <v>134.86500000000001</v>
+        <v>134.76</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B194" s="1">
-        <v>134.845</v>
+        <v>134.86500000000001</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B195" s="1">
-        <v>134.7216</v>
+        <v>134.845</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B196" s="1">
-        <v>134.56</v>
+        <v>134.7216</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B197" s="1">
-        <v>134.47999999999999</v>
+        <v>134.56</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B198" s="1">
-        <v>134.35</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B199" s="1">
-        <v>134.19</v>
+        <v>134.35</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B200" s="1">
-        <v>134.245</v>
+        <v>134.19</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B201" s="1">
-        <v>134.23500000000001</v>
+        <v>134.245</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B202" s="1">
-        <v>134.13</v>
+        <v>134.23500000000001</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B203" s="1">
         <v>134.13</v>
@@ -4315,2905 +4311,2905 @@
     </row>
     <row r="204" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B204" s="1">
-        <v>134.04499999999999</v>
+        <v>134.13</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B205" s="1">
-        <v>133.97999999999999</v>
+        <v>134.04499999999999</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B206" s="1">
-        <v>134.06</v>
+        <v>133.97999999999999</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B207" s="1">
-        <v>134</v>
+        <v>134.06</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B208" s="1">
-        <v>134.11500000000001</v>
+        <v>134</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B209" s="1">
-        <v>133.97</v>
+        <v>134.11500000000001</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B210" s="1">
-        <v>133.82</v>
+        <v>133.97</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B211" s="1">
-        <v>133.745</v>
+        <v>133.82</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B212" s="1">
-        <v>133.78</v>
+        <v>133.745</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
     <row r="213" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B213" s="1">
-        <v>133.76</v>
+        <v>133.78</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B214" s="1">
-        <v>133.53899999999999</v>
+        <v>133.76</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
     <row r="215" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B215" s="1">
-        <v>133.9282</v>
+        <v>133.53899999999999</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B216" s="1">
-        <v>133.96</v>
+        <v>133.9282</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B217" s="1">
-        <v>133.91999999999999</v>
+        <v>133.96</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B218" s="1">
-        <v>133.76</v>
+        <v>133.91999999999999</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B219" s="1">
-        <v>133.4778</v>
+        <v>133.76</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B220" s="1">
-        <v>133.46199999999999</v>
+        <v>133.4778</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B221" s="1">
-        <v>133.63499999999999</v>
+        <v>133.46199999999999</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B222" s="1">
-        <v>133.86500000000001</v>
+        <v>133.63499999999999</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B223" s="1">
-        <v>133.93539999999999</v>
+        <v>133.86500000000001</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B224" s="1">
-        <v>133.685</v>
+        <v>133.93539999999999</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B225" s="1">
-        <v>133.58000000000001</v>
+        <v>133.685</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B226" s="1">
-        <v>134.5</v>
+        <v>133.58000000000001</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B227" s="1">
-        <v>131.29</v>
+        <v>134.5</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B228" s="1">
-        <v>131.41999999999999</v>
+        <v>131.29</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B229" s="1">
-        <v>131.39500000000001</v>
+        <v>131.41999999999999</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B230" s="1">
-        <v>131.36500000000001</v>
+        <v>131.39500000000001</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B231" s="1">
-        <v>131.39500000000001</v>
+        <v>131.36500000000001</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B232" s="1">
-        <v>131.31</v>
+        <v>131.39500000000001</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B233" s="1">
-        <v>131.33000000000001</v>
+        <v>131.31</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B234" s="1">
-        <v>131.565</v>
+        <v>131.33000000000001</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B235" s="1">
-        <v>131.51910000000001</v>
+        <v>131.565</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
     <row r="236" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B236" s="1">
-        <v>131.55500000000001</v>
+        <v>131.51910000000001</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
     <row r="237" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B237" s="1">
-        <v>131.72</v>
+        <v>131.55500000000001</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B238" s="1">
-        <v>131.66999999999999</v>
+        <v>131.72</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B239" s="1">
-        <v>131.85</v>
+        <v>131.66999999999999</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B240" s="1">
-        <v>131.755</v>
+        <v>131.85</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B241" s="1">
-        <v>131.83000000000001</v>
+        <v>131.755</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B242" s="1">
-        <v>131.91</v>
+        <v>131.83000000000001</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B243" s="1">
-        <v>131.80000000000001</v>
+        <v>131.91</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B244" s="1">
-        <v>131.845</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
     <row r="245" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B245" s="1">
-        <v>131.88</v>
+        <v>131.845</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
     <row r="246" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B246" s="1">
-        <v>131.77000000000001</v>
+        <v>131.88</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
     <row r="247" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B247" s="1">
-        <v>131.9</v>
+        <v>131.77000000000001</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B248" s="1">
-        <v>131.90029999999999</v>
+        <v>131.9</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B249" s="1">
-        <v>131.83160000000001</v>
+        <v>131.90029999999999</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
     <row r="250" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B250" s="1">
-        <v>131.77000000000001</v>
+        <v>131.83160000000001</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
     <row r="251" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B251" s="1">
-        <v>131.74</v>
+        <v>131.77000000000001</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
     <row r="252" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B252" s="1">
-        <v>131.83500000000001</v>
+        <v>131.74</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
     <row r="253" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B253" s="1">
-        <v>131.69139999999999</v>
+        <v>131.83500000000001</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B254" s="1">
-        <v>131.63499999999999</v>
+        <v>131.69139999999999</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B255" s="1">
-        <v>131.62100000000001</v>
+        <v>131.63499999999999</v>
       </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B256" s="1">
-        <v>131.63999999999999</v>
+        <v>131.62100000000001</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B257" s="1">
-        <v>131.53</v>
+        <v>131.63999999999999</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B258" s="1">
-        <v>131.56</v>
+        <v>131.53</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B259" s="1">
-        <v>131.47499999999999</v>
+        <v>131.56</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B260" s="1">
-        <v>131.40020000000001</v>
+        <v>131.47499999999999</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B261" s="1">
-        <v>131.52539999999999</v>
+        <v>131.40020000000001</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
     <row r="262" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B262" s="1">
-        <v>131.595</v>
+        <v>131.52539999999999</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
     <row r="263" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B263" s="1">
-        <v>131.47499999999999</v>
+        <v>131.595</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B264" s="1">
-        <v>131.5001</v>
+        <v>131.47499999999999</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
     <row r="265" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B265" s="1">
-        <v>131.72</v>
+        <v>131.5001</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B266" s="1">
-        <v>131.78</v>
+        <v>131.72</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
     <row r="267" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B267" s="1">
-        <v>131.79499999999999</v>
+        <v>131.78</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B268" s="1">
-        <v>131.86500000000001</v>
+        <v>131.79499999999999</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B269" s="1">
-        <v>131.935</v>
+        <v>131.86500000000001</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B270" s="1">
-        <v>131.85</v>
+        <v>131.935</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
     <row r="271" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B271" s="1">
-        <v>131.905</v>
+        <v>131.85</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B272" s="1">
-        <v>131.99160000000001</v>
+        <v>131.905</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B273" s="1">
-        <v>132.08459999999999</v>
+        <v>131.99160000000001</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
     <row r="274" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B274" s="1">
-        <v>132.08000000000001</v>
+        <v>132.08459999999999</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B275" s="1">
-        <v>132.065</v>
+        <v>132.08000000000001</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B276" s="1">
-        <v>131.99</v>
+        <v>132.065</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B277" s="1">
-        <v>131.97999999999999</v>
+        <v>131.99</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B278" s="1">
-        <v>131.94499999999999</v>
+        <v>131.97999999999999</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
     <row r="279" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B279" s="1">
-        <v>131.97</v>
+        <v>131.94499999999999</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B280" s="1">
-        <v>131.755</v>
+        <v>131.97</v>
       </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
     <row r="281" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B281" s="1">
-        <v>131.64500000000001</v>
+        <v>131.755</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B282" s="1">
-        <v>131.61009999999999</v>
+        <v>131.64500000000001</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
     <row r="283" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B283" s="1">
-        <v>131.76499999999999</v>
+        <v>131.61009999999999</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B284" s="1">
-        <v>131.60499999999999</v>
+        <v>131.76499999999999</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B285" s="1">
-        <v>131.69</v>
+        <v>131.60499999999999</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B286" s="1">
-        <v>131.85</v>
+        <v>131.69</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B287" s="1">
-        <v>131.85499999999999</v>
+        <v>131.85</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B288" s="1">
-        <v>131.82499999999999</v>
+        <v>131.85499999999999</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B289" s="1">
-        <v>131.91</v>
+        <v>131.82499999999999</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B290" s="1">
-        <v>131.9</v>
+        <v>131.91</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B291" s="1">
-        <v>131.995</v>
+        <v>131.9</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B292" s="1">
-        <v>131.88</v>
+        <v>131.995</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B293" s="1">
-        <v>131.84819999999999</v>
+        <v>131.88</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B294" s="1">
-        <v>131.77500000000001</v>
+        <v>131.84819999999999</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
     <row r="295" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B295" s="1">
-        <v>131.8235</v>
+        <v>131.77500000000001</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B296" s="1">
-        <v>131.78</v>
+        <v>131.8235</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B297" s="1">
-        <v>131.82499999999999</v>
+        <v>131.78</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B298" s="1">
-        <v>131.76499999999999</v>
+        <v>131.82499999999999</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
     <row r="299" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B299" s="1">
-        <v>131.64500000000001</v>
+        <v>131.76499999999999</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
     <row r="300" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B300" s="1">
-        <v>131.68010000000001</v>
+        <v>131.64500000000001</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B301" s="1">
-        <v>131.85499999999999</v>
+        <v>131.68010000000001</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B302" s="1">
-        <v>131.93</v>
+        <v>131.85499999999999</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B303" s="1">
-        <v>131.9624</v>
+        <v>131.93</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B304" s="1">
-        <v>132.06</v>
+        <v>131.9624</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B305" s="1">
-        <v>132.02000000000001</v>
+        <v>132.06</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B306" s="1">
-        <v>132.0513</v>
+        <v>132.02000000000001</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
     <row r="307" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B307" s="1">
-        <v>131.99</v>
+        <v>132.0513</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
     <row r="308" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B308" s="1">
-        <v>132.13499999999999</v>
+        <v>131.99</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
     <row r="309" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>132.13</v>
+        <v>132.13499999999999</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
     <row r="310" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B310" s="1">
-        <v>132.22</v>
+        <v>132.13</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B311" s="1">
-        <v>132.30000000000001</v>
+        <v>132.22</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B312" s="1">
-        <v>132.28020000000001</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
     <row r="313" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B313" s="1">
-        <v>132.30000000000001</v>
+        <v>132.28020000000001</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B314" s="1">
-        <v>132.2516</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
     <row r="315" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B315" s="1">
-        <v>132.215</v>
+        <v>132.2516</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
     <row r="316" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B316" s="1">
-        <v>132.30500000000001</v>
+        <v>132.215</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
     <row r="317" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B317" s="1">
-        <v>132.101</v>
+        <v>132.30500000000001</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
     <row r="318" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B318" s="1">
-        <v>132.06</v>
+        <v>132.101</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B319" s="1">
-        <v>132.18199999999999</v>
+        <v>132.06</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B320" s="1">
-        <v>132.16</v>
+        <v>132.18199999999999</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B321" s="1">
-        <v>132.13999999999999</v>
+        <v>132.16</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B322" s="1">
-        <v>132.21</v>
+        <v>132.13999999999999</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B323" s="1">
-        <v>132.04</v>
+        <v>132.21</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
     <row r="324" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B324" s="1">
-        <v>131.8801</v>
+        <v>132.04</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B325" s="1">
-        <v>132.0215</v>
+        <v>131.8801</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B326" s="1">
-        <v>132.18819999999999</v>
+        <v>132.0215</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B327" s="1">
-        <v>132.31</v>
+        <v>132.18819999999999</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B328" s="1">
-        <v>132.41499999999999</v>
+        <v>132.31</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="1">
-        <v>132.36000000000001</v>
+        <v>132.41499999999999</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B330" s="1">
-        <v>132.56</v>
+        <v>132.36000000000001</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B331" s="1">
-        <v>132.43180000000001</v>
+        <v>132.56</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B332" s="1">
-        <v>132.44499999999999</v>
+        <v>132.43180000000001</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B333" s="1">
-        <v>132.4</v>
+        <v>132.44499999999999</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B334" s="1">
-        <v>132.4032</v>
+        <v>132.4</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B335" s="1">
-        <v>132.43</v>
+        <v>132.4032</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" ht="14" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B336" s="1">
-        <v>132.535</v>
+        <v>132.43</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B337" s="1">
-        <v>132.53</v>
+        <v>132.535</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B338" s="1">
-        <v>132.51</v>
+        <v>132.53</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B339" s="1">
-        <v>132.2585</v>
+        <v>132.51</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B340" s="1">
-        <v>132.27500000000001</v>
+        <v>132.2585</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B341" s="1">
-        <v>132.35</v>
+        <v>132.27500000000001</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B342" s="1">
-        <v>132.1446</v>
+        <v>132.35</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B343" s="1">
-        <v>132.09</v>
+        <v>132.1446</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B344" s="1">
-        <v>132.03049999999999</v>
+        <v>132.09</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B345" s="1">
-        <v>132.63</v>
+        <v>132.03049999999999</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B346" s="1">
-        <v>131.91</v>
+        <v>132.63</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B347" s="1">
-        <v>131.88499999999999</v>
+        <v>131.91</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B348" s="1">
-        <v>131.9495</v>
+        <v>131.88499999999999</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B349" s="1">
-        <v>131.8758</v>
+        <v>131.9495</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B350" s="1">
-        <v>131.8175</v>
+        <v>131.8758</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B351" s="1">
-        <v>131.94999999999999</v>
+        <v>131.8175</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B352" s="1">
-        <v>131.97999999999999</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B353" s="1">
-        <v>131.91</v>
+        <v>131.97999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B354" s="1">
-        <v>131.94499999999999</v>
+        <v>131.91</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B355" s="1">
-        <v>131.8417</v>
+        <v>131.94499999999999</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B356" s="1">
-        <v>131.79</v>
+        <v>131.8417</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B357" s="1">
-        <v>131.72120000000001</v>
+        <v>131.79</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B358" s="1">
-        <v>131.69999999999999</v>
+        <v>131.72120000000001</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B359" s="1">
-        <v>131.75110000000001</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B360" s="1">
-        <v>131.66999999999999</v>
+        <v>131.75110000000001</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B361" s="1">
-        <v>131.69</v>
+        <v>131.66999999999999</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B362" s="1">
-        <v>131.61000000000001</v>
+        <v>131.69</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B363" s="1">
-        <v>131.44999999999999</v>
+        <v>131.61000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B364" s="1">
-        <v>131.54480000000001</v>
+        <v>131.44999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B365" s="1">
-        <v>131.6</v>
+        <v>131.54480000000001</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B366" s="1">
-        <v>131.60900000000001</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B367" s="1">
-        <v>131.80500000000001</v>
+        <v>131.60900000000001</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B368" s="1">
-        <v>131.8297</v>
+        <v>131.80500000000001</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B369" s="1">
-        <v>131.89009999999999</v>
+        <v>131.8297</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B370" s="1">
-        <v>131.85</v>
+        <v>131.89009999999999</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B371" s="1">
-        <v>131.76990000000001</v>
+        <v>131.85</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B372" s="1">
-        <v>131.69999999999999</v>
+        <v>131.76990000000001</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B373" s="1">
-        <v>131.82</v>
+        <v>131.69999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B374" s="1">
-        <v>131.875</v>
+        <v>131.82</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B375" s="1">
-        <v>131.815</v>
+        <v>131.875</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B376" s="1">
-        <v>131.9</v>
+        <v>131.815</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B377" s="1">
-        <v>131.93</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B378" s="1">
-        <v>131.94999999999999</v>
+        <v>131.93</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B379" s="1">
-        <v>131.88</v>
+        <v>131.94999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B380" s="1">
-        <v>131.86000000000001</v>
+        <v>131.88</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B381" s="1">
-        <v>131.965</v>
+        <v>131.86000000000001</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B382" s="1">
-        <v>132.05000000000001</v>
+        <v>131.965</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B383" s="1">
-        <v>131.86500000000001</v>
+        <v>132.05000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B384" s="1">
-        <v>131.94499999999999</v>
+        <v>131.86500000000001</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B385" s="1">
-        <v>131.85</v>
+        <v>131.94499999999999</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B386" s="1">
-        <v>131.73009999999999</v>
+        <v>131.85</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B387" s="1">
-        <v>131.785</v>
+        <v>131.73009999999999</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B388" s="1">
-        <v>131.79929999999999</v>
+        <v>131.785</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B389" s="1">
-        <v>131.69499999999999</v>
+        <v>131.79929999999999</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B390" s="1">
-        <v>131.61000000000001</v>
+        <v>131.69499999999999</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B391" s="1">
-        <v>131.59989999999999</v>
+        <v>131.61000000000001</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B392" s="1">
-        <v>131.62</v>
+        <v>131.59989999999999</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B393" s="1">
-        <v>131.595</v>
+        <v>131.62</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B394" s="1">
-        <v>131.67500000000001</v>
+        <v>131.595</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B395" s="1">
-        <v>131.68</v>
+        <v>131.67500000000001</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B396" s="1">
-        <v>131.65</v>
+        <v>131.68</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B397" s="1">
-        <v>131.70500000000001</v>
+        <v>131.65</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B398" s="1">
-        <v>131.55500000000001</v>
+        <v>131.70500000000001</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B399" s="1">
-        <v>131.54499999999999</v>
+        <v>131.55500000000001</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B400" s="1">
-        <v>131.66</v>
+        <v>131.54499999999999</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B401" s="1">
-        <v>131.43870000000001</v>
+        <v>131.66</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B402" s="1">
-        <v>131.38999999999999</v>
+        <v>131.43870000000001</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B403" s="1">
-        <v>131.245</v>
+        <v>131.38999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B404" s="1">
-        <v>131.185</v>
+        <v>131.245</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B405" s="1">
-        <v>131.01</v>
+        <v>131.185</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B406" s="1">
-        <v>131.07</v>
+        <v>131.01</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B407" s="1">
-        <v>131.05000000000001</v>
+        <v>131.07</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B408" s="1">
-        <v>131.10499999999999</v>
+        <v>131.05000000000001</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B409" s="1">
-        <v>131.16</v>
+        <v>131.10499999999999</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B410" s="1">
-        <v>131.06989999999999</v>
+        <v>131.16</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B411" s="1">
-        <v>131.20500000000001</v>
+        <v>131.06989999999999</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B412" s="1">
-        <v>131.26</v>
+        <v>131.20500000000001</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B413" s="1">
-        <v>131.155</v>
+        <v>131.26</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B414" s="1">
-        <v>131.125</v>
+        <v>131.155</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B415" s="1">
-        <v>131.22</v>
+        <v>131.125</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B416" s="1">
-        <v>131.215</v>
+        <v>131.22</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B417" s="1">
-        <v>131.15</v>
+        <v>131.215</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B418" s="1">
-        <v>131.1386</v>
+        <v>131.15</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B419" s="1">
-        <v>131.17009999999999</v>
+        <v>131.1386</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B420" s="1">
-        <v>131.21</v>
+        <v>131.17009999999999</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B421" s="1">
-        <v>131.07</v>
+        <v>131.21</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B422" s="1">
-        <v>131.0411</v>
+        <v>131.07</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B423" s="1">
-        <v>130.99</v>
+        <v>131.0411</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B424" s="1">
-        <v>131.005</v>
+        <v>130.99</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B425" s="1">
-        <v>130.965</v>
+        <v>131.005</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B426" s="1">
-        <v>130.91499999999999</v>
+        <v>130.965</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B427" s="1">
-        <v>131.065</v>
+        <v>130.91499999999999</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B428" s="1">
-        <v>131.07</v>
+        <v>131.065</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B429" s="1">
-        <v>131.095</v>
+        <v>131.07</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B430" s="1">
-        <v>131.06129999999999</v>
+        <v>131.095</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B431" s="1">
-        <v>131.005</v>
+        <v>131.06129999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B432" s="1">
-        <v>130.92349999999999</v>
+        <v>131.005</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B433" s="1">
-        <v>130.845</v>
+        <v>130.92349999999999</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B434" s="1">
-        <v>130.88</v>
+        <v>130.845</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B435" s="1">
-        <v>130.91</v>
+        <v>130.88</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B436" s="1">
-        <v>130.91999999999999</v>
+        <v>130.91</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B437" s="1">
-        <v>131.005</v>
+        <v>130.91999999999999</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B438" s="1">
-        <v>131.1482</v>
+        <v>131.005</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B439" s="1">
-        <v>131.15</v>
+        <v>131.1482</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B440" s="1">
-        <v>130.99</v>
+        <v>131.15</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B441" s="1">
-        <v>131.035</v>
+        <v>130.99</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B442" s="1">
-        <v>130.995</v>
+        <v>131.035</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B443" s="1">
-        <v>131.03</v>
+        <v>130.995</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B444" s="1">
-        <v>131.0463</v>
+        <v>131.03</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B445" s="1">
-        <v>131.095</v>
+        <v>131.0463</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B446" s="1">
-        <v>131.05009999999999</v>
+        <v>131.095</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B447" s="1">
-        <v>130.94499999999999</v>
+        <v>131.05009999999999</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B448" s="1">
-        <v>130.89500000000001</v>
+        <v>130.94499999999999</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B449" s="1">
-        <v>130.99</v>
+        <v>130.89500000000001</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B450" s="1">
-        <v>131.02500000000001</v>
+        <v>130.99</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B451" s="1">
-        <v>131.07499999999999</v>
+        <v>131.02500000000001</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B452" s="1">
-        <v>130.99</v>
+        <v>131.07499999999999</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B453" s="1">
-        <v>130.94999999999999</v>
+        <v>130.99</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B454" s="1">
-        <v>131.01</v>
+        <v>130.94999999999999</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B455" s="1">
-        <v>131.005</v>
+        <v>131.01</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B456" s="1">
-        <v>131.07</v>
+        <v>131.005</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B457" s="1">
-        <v>131.12</v>
+        <v>131.07</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B458" s="1">
-        <v>130.97499999999999</v>
+        <v>131.12</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B459" s="1">
-        <v>131.01499999999999</v>
+        <v>130.97499999999999</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B460" s="1">
-        <v>130.86500000000001</v>
+        <v>131.01499999999999</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B461" s="1">
-        <v>130.79499999999999</v>
+        <v>130.86500000000001</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B462" s="1">
-        <v>130.72999999999999</v>
+        <v>130.79499999999999</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B463" s="1">
-        <v>131.11000000000001</v>
+        <v>130.72999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B464" s="1">
-        <v>131.01499999999999</v>
+        <v>131.11000000000001</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B465" s="1">
-        <v>130.74</v>
+        <v>131.01499999999999</v>
       </c>
     </row>
     <row r="466" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B466" s="1">
-        <v>130.715</v>
+        <v>130.74</v>
       </c>
     </row>
     <row r="467" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B467" s="1">
-        <v>130.69499999999999</v>
+        <v>130.715</v>
       </c>
     </row>
     <row r="468" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B468" s="1">
-        <v>130.785</v>
+        <v>130.69499999999999</v>
       </c>
     </row>
     <row r="469" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B469" s="1">
-        <v>130.81</v>
+        <v>130.785</v>
       </c>
     </row>
     <row r="470" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B470" s="1">
-        <v>130.78</v>
+        <v>130.81</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B471" s="1">
-        <v>130.755</v>
+        <v>130.78</v>
       </c>
     </row>
     <row r="472" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B472" s="1">
-        <v>130.9</v>
+        <v>130.755</v>
       </c>
     </row>
     <row r="473" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B473" s="1">
-        <v>130.83000000000001</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="474" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B474" s="1">
-        <v>130.76499999999999</v>
+        <v>130.83000000000001</v>
       </c>
     </row>
     <row r="475" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B475" s="1">
-        <v>130.88499999999999</v>
+        <v>130.76499999999999</v>
       </c>
     </row>
     <row r="476" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B476" s="1">
-        <v>130.82</v>
+        <v>130.88499999999999</v>
       </c>
     </row>
     <row r="477" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B477" s="1">
-        <v>130.97999999999999</v>
+        <v>130.82</v>
       </c>
     </row>
     <row r="478" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B478" s="1">
-        <v>131.01</v>
+        <v>130.97999999999999</v>
       </c>
     </row>
     <row r="479" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B479" s="1">
-        <v>130.99</v>
+        <v>131.01</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B480" s="1">
-        <v>130.97</v>
+        <v>130.99</v>
       </c>
     </row>
     <row r="481" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B481" s="1">
-        <v>130.88</v>
+        <v>130.97</v>
       </c>
     </row>
     <row r="482" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B482" s="1">
-        <v>131.035</v>
+        <v>130.88</v>
       </c>
     </row>
     <row r="483" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B483" s="1">
-        <v>131.0615</v>
+        <v>131.035</v>
       </c>
     </row>
     <row r="484" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B484" s="1">
-        <v>131.04300000000001</v>
+        <v>131.0615</v>
       </c>
     </row>
     <row r="485" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B485" s="1">
-        <v>130.94999999999999</v>
+        <v>131.04300000000001</v>
       </c>
     </row>
     <row r="486" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B486" s="1">
-        <v>131.01849999999999</v>
+        <v>130.94999999999999</v>
       </c>
     </row>
     <row r="487" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B487" s="1">
-        <v>130.935</v>
+        <v>131.01849999999999</v>
       </c>
     </row>
     <row r="488" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B488" s="1">
-        <v>130.94499999999999</v>
+        <v>130.935</v>
       </c>
     </row>
     <row r="489" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B489" s="1">
-        <v>131.16999999999999</v>
+        <v>130.94499999999999</v>
       </c>
     </row>
     <row r="490" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B490" s="1">
-        <v>131.09870000000001</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="491" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B491" s="1">
-        <v>131.05500000000001</v>
+        <v>131.09870000000001</v>
       </c>
     </row>
     <row r="492" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B492" s="1">
-        <v>131.17140000000001</v>
+        <v>131.05500000000001</v>
       </c>
     </row>
     <row r="493" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B493" s="1">
-        <v>131.13</v>
+        <v>131.17140000000001</v>
       </c>
     </row>
     <row r="494" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B494" s="1">
-        <v>131.10499999999999</v>
+        <v>131.13</v>
       </c>
     </row>
     <row r="495" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B495" s="1">
-        <v>131.02500000000001</v>
+        <v>131.10499999999999</v>
       </c>
     </row>
     <row r="496" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B496" s="1">
-        <v>131.00020000000001</v>
+        <v>131.02500000000001</v>
       </c>
     </row>
     <row r="497" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B497" s="1">
-        <v>130.94999999999999</v>
+        <v>131.00020000000001</v>
       </c>
     </row>
     <row r="498" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B498" s="1">
-        <v>130.91</v>
+        <v>130.94999999999999</v>
       </c>
     </row>
     <row r="499" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B499" s="1">
-        <v>130.89500000000001</v>
+        <v>130.91</v>
       </c>
     </row>
     <row r="500" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B500" s="1">
-        <v>130.94999999999999</v>
+        <v>130.89500000000001</v>
       </c>
     </row>
     <row r="501" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B501" s="1">
-        <v>130.93989999999999</v>
+        <v>130.94999999999999</v>
       </c>
     </row>
     <row r="502" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B502" s="1">
-        <v>131.005</v>
+        <v>130.93989999999999</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B503" s="1">
-        <v>130.97999999999999</v>
+        <v>131.005</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B504" s="1">
-        <v>130.9</v>
+        <v>130.97999999999999</v>
       </c>
     </row>
     <row r="505" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B505" s="1">
-        <v>130.8699</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="506" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B506" s="1">
-        <v>130.69759999999999</v>
+        <v>130.8699</v>
       </c>
     </row>
     <row r="507" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B507" s="1">
-        <v>130.595</v>
+        <v>130.69759999999999</v>
       </c>
     </row>
     <row r="508" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B508" s="1">
-        <v>130.70650000000001</v>
+        <v>130.595</v>
       </c>
     </row>
     <row r="509" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B509" s="1">
-        <v>130.565</v>
+        <v>130.70650000000001</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B510" s="1">
-        <v>130.40010000000001</v>
+        <v>130.565</v>
       </c>
     </row>
     <row r="511" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B511" s="1">
-        <v>130.36500000000001</v>
+        <v>130.40010000000001</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B512" s="1">
-        <v>130.63499999999999</v>
+        <v>130.36500000000001</v>
       </c>
     </row>
     <row r="513" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B513" s="1">
-        <v>130.51</v>
+        <v>130.63499999999999</v>
       </c>
     </row>
     <row r="514" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B514" s="1">
-        <v>130.76</v>
+        <v>130.51</v>
       </c>
     </row>
     <row r="515" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B515" s="1">
-        <v>130.9299</v>
+        <v>130.76</v>
       </c>
     </row>
     <row r="516" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B516" s="1">
-        <v>130.79</v>
+        <v>130.9299</v>
       </c>
     </row>
     <row r="517" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B517" s="1">
-        <v>130.7647</v>
+        <v>130.79</v>
       </c>
     </row>
     <row r="518" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B518" s="1">
-        <v>130.565</v>
+        <v>130.7647</v>
       </c>
     </row>
     <row r="519" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B519" s="1">
-        <v>130.60499999999999</v>
+        <v>130.565</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B520" s="1">
-        <v>130.69999999999999</v>
+        <v>130.60499999999999</v>
       </c>
     </row>
     <row r="521" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B521" s="1">
-        <v>130.80099999999999</v>
+        <v>130.69999999999999</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B522" s="1">
-        <v>131.18</v>
+        <v>130.80099999999999</v>
       </c>
     </row>
     <row r="523" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B523" s="1">
-        <v>131.39500000000001</v>
+        <v>131.18</v>
       </c>
     </row>
     <row r="524" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B524" s="1">
-        <v>131.25370000000001</v>
+        <v>131.39500000000001</v>
       </c>
     </row>
     <row r="525" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B525" s="1">
-        <v>131.33000000000001</v>
+        <v>131.25370000000001</v>
       </c>
     </row>
     <row r="526" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B526" s="1">
-        <v>131.34</v>
+        <v>131.33000000000001</v>
       </c>
     </row>
     <row r="527" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B527" s="1">
-        <v>131.22</v>
+        <v>131.34</v>
       </c>
     </row>
     <row r="528" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B528" s="1">
-        <v>131.185</v>
+        <v>131.22</v>
       </c>
     </row>
     <row r="529" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B529" s="1">
-        <v>131.33000000000001</v>
+        <v>131.185</v>
       </c>
     </row>
     <row r="530" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B530" s="1">
-        <v>131.18090000000001</v>
+        <v>131.33000000000001</v>
       </c>
     </row>
     <row r="531" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B531" s="1">
-        <v>131.255</v>
+        <v>131.18090000000001</v>
       </c>
     </row>
     <row r="532" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B532" s="1">
-        <v>131.185</v>
+        <v>131.255</v>
       </c>
     </row>
     <row r="533" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B533" s="1">
         <v>131.185</v>
@@ -7221,263 +7217,263 @@
     </row>
     <row r="534" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B534" s="1">
-        <v>131.06120000000001</v>
+        <v>131.185</v>
       </c>
     </row>
     <row r="535" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B535" s="1">
-        <v>131.06</v>
+        <v>131.06120000000001</v>
       </c>
     </row>
     <row r="536" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B536" s="1">
-        <v>131.16820000000001</v>
+        <v>131.06</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B537" s="1">
-        <v>131.20500000000001</v>
+        <v>131.16820000000001</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B538" s="1">
-        <v>131.22</v>
+        <v>131.20500000000001</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B539" s="1">
-        <v>130.995</v>
+        <v>131.22</v>
       </c>
     </row>
     <row r="540" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B540" s="1">
-        <v>131.03989999999999</v>
+        <v>130.995</v>
       </c>
     </row>
     <row r="541" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B541" s="1">
-        <v>131.09989999999999</v>
+        <v>131.03989999999999</v>
       </c>
     </row>
     <row r="542" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B542" s="1">
-        <v>131</v>
+        <v>131.09989999999999</v>
       </c>
     </row>
     <row r="543" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B543" s="1">
-        <v>130.965</v>
+        <v>131</v>
       </c>
     </row>
     <row r="544" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B544" s="1">
-        <v>130.845</v>
+        <v>130.965</v>
       </c>
     </row>
     <row r="545" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B545" s="1">
-        <v>131.0352</v>
+        <v>130.845</v>
       </c>
     </row>
     <row r="546" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B546" s="1">
-        <v>131.06</v>
+        <v>131.0352</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B547" s="1">
-        <v>130.97999999999999</v>
+        <v>131.06</v>
       </c>
     </row>
     <row r="548" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B548" s="1">
-        <v>131.04929999999999</v>
+        <v>130.97999999999999</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B549" s="1">
-        <v>130.94499999999999</v>
+        <v>131.04929999999999</v>
       </c>
     </row>
     <row r="550" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B550" s="1">
-        <v>131.22499999999999</v>
+        <v>130.94499999999999</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B551" s="1">
-        <v>131.26</v>
+        <v>131.22499999999999</v>
       </c>
     </row>
     <row r="552" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B552" s="1">
-        <v>131.095</v>
+        <v>131.26</v>
       </c>
     </row>
     <row r="553" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B553" s="1">
-        <v>130.815</v>
+        <v>131.095</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B554" s="1">
-        <v>130.68</v>
+        <v>130.815</v>
       </c>
     </row>
     <row r="555" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B555" s="1">
-        <v>130.69990000000001</v>
+        <v>130.68</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B556" s="1">
-        <v>130.595</v>
+        <v>130.69990000000001</v>
       </c>
     </row>
     <row r="557" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B557" s="1">
-        <v>130.53</v>
+        <v>130.595</v>
       </c>
     </row>
     <row r="558" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B558" s="1">
-        <v>130.42500000000001</v>
+        <v>130.53</v>
       </c>
     </row>
     <row r="559" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B559" s="1">
-        <v>130.625</v>
+        <v>130.42500000000001</v>
       </c>
     </row>
     <row r="560" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B560" s="1">
-        <v>130.76</v>
+        <v>130.625</v>
       </c>
     </row>
     <row r="561" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B561" s="1">
-        <v>131.0196</v>
+        <v>130.76</v>
       </c>
     </row>
     <row r="562" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B562" s="1">
-        <v>130.88999999999999</v>
+        <v>131.0196</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B563" s="1">
-        <v>130.70480000000001</v>
+        <v>130.88999999999999</v>
       </c>
     </row>
     <row r="564" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B564" s="1">
-        <v>130.535</v>
+        <v>130.70480000000001</v>
       </c>
     </row>
     <row r="565" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B565" s="1">
-        <v>130.37</v>
+        <v>130.535</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B566" s="1">
         <v>130.37</v>
@@ -7485,3105 +7481,410 @@
     </row>
     <row r="567" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B567" s="1">
-        <v>130.46010000000001</v>
+        <v>130.37</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B568" s="1">
-        <v>130.72999999999999</v>
+        <v>130.46010000000001</v>
       </c>
     </row>
     <row r="569" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B569" s="1">
-        <v>130.88999999999999</v>
+        <v>130.72999999999999</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B570" s="1">
-        <v>130.935</v>
+        <v>130.88999999999999</v>
       </c>
     </row>
     <row r="571" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B571" s="1">
-        <v>130.911</v>
+        <v>130.935</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B572" s="1">
-        <v>130.965</v>
+        <v>130.911</v>
       </c>
     </row>
     <row r="573" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B573" s="1">
-        <v>130.875</v>
+        <v>130.965</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B574" s="1">
-        <v>131.095</v>
+        <v>130.875</v>
       </c>
     </row>
     <row r="575" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B575" s="1">
-        <v>130.7799</v>
+        <v>131.095</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B576" s="1">
-        <v>130.66499999999999</v>
+        <v>130.7799</v>
       </c>
     </row>
     <row r="577" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B577" s="1">
-        <v>130.8295</v>
+        <v>130.66499999999999</v>
       </c>
     </row>
     <row r="578" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B578" s="1">
-        <v>130.9624</v>
+        <v>130.8295</v>
       </c>
     </row>
     <row r="579" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B579" s="1">
-        <v>130.755</v>
+        <v>130.9624</v>
       </c>
     </row>
     <row r="580" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B580" s="1">
-        <v>130.75</v>
+        <v>130.755</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B581" s="1">
-        <v>130.82499999999999</v>
+        <v>130.75</v>
       </c>
     </row>
     <row r="582" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B582" s="1">
-        <v>130.83500000000001</v>
+        <v>130.82499999999999</v>
       </c>
     </row>
     <row r="583" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B583" s="1">
-        <v>130.70500000000001</v>
+        <v>130.83500000000001</v>
       </c>
     </row>
     <row r="584" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B584" s="1">
-        <v>130.62</v>
+        <v>130.70500000000001</v>
       </c>
     </row>
     <row r="585" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B585" s="1">
-        <v>130.57</v>
+        <v>130.62</v>
       </c>
     </row>
     <row r="586" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B586" s="1">
-        <v>130.51499999999999</v>
+        <v>130.57</v>
       </c>
     </row>
     <row r="587" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B587" s="1">
-        <v>130.37</v>
+        <v>130.51499999999999</v>
       </c>
     </row>
     <row r="588" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B588" s="1">
-        <v>130.30000000000001</v>
+        <v>130.37</v>
       </c>
     </row>
     <row r="589" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B589" s="1">
-        <v>130.33000000000001</v>
+        <v>130.30000000000001</v>
       </c>
     </row>
     <row r="590" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B590" s="1">
-        <v>130.3399</v>
+        <v>130.33000000000001</v>
       </c>
     </row>
     <row r="591" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B591" s="1">
-        <v>130.19</v>
+        <v>130.3399</v>
       </c>
     </row>
     <row r="592" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B592" s="1">
-        <v>130.11000000000001</v>
+        <v>130.19</v>
       </c>
     </row>
     <row r="593" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B593" s="1">
-        <v>129.84</v>
+        <v>130.11000000000001</v>
       </c>
     </row>
     <row r="594" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B594" s="1">
-        <v>130.245</v>
+        <v>129.84</v>
       </c>
     </row>
     <row r="595" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B595" s="1">
-        <v>130.03</v>
+        <v>130.245</v>
       </c>
     </row>
     <row r="596" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B596" s="1">
-        <v>130.08519999999999</v>
+        <v>130.03</v>
       </c>
     </row>
     <row r="597" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B597" s="1">
-        <v>129.84</v>
+        <v>130.08519999999999</v>
       </c>
     </row>
     <row r="598" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B598" s="1">
-        <v>129.79499999999999</v>
+        <v>129.84</v>
       </c>
     </row>
     <row r="599" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B599" s="1">
-        <v>129.82499999999999</v>
+        <v>129.79499999999999</v>
       </c>
     </row>
     <row r="600" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B600" s="1">
-        <v>129.94999999999999</v>
+        <v>129.82499999999999</v>
       </c>
     </row>
     <row r="601" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B601" s="1">
-        <v>130.02500000000001</v>
+        <v>129.94999999999999</v>
       </c>
     </row>
     <row r="602" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B602" s="1">
-        <v>130.29</v>
+        <v>130.02500000000001</v>
       </c>
     </row>
     <row r="603" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B603" s="1">
-        <v>130.12</v>
+        <v>130.29</v>
       </c>
     </row>
     <row r="604" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B604" s="1">
-        <v>130.32499999999999</v>
+        <v>130.12</v>
       </c>
     </row>
     <row r="605" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B605" s="1">
-        <v>130.61500000000001</v>
+        <v>130.32499999999999</v>
       </c>
     </row>
     <row r="606" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B606" s="1">
-        <v>130.37</v>
+        <v>130.61500000000001</v>
       </c>
     </row>
     <row r="607" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B607" s="1">
-        <v>130.47</v>
+        <v>130.37</v>
       </c>
     </row>
     <row r="608" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B608" s="1">
-        <v>130.77000000000001</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B609" s="1">
-        <v>130.54990000000001</v>
+        <v>130.77000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B610" s="1">
-        <v>130.81</v>
+        <v>130.54990000000001</v>
       </c>
     </row>
     <row r="611" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B611" s="1">
-        <v>130.82499999999999</v>
+        <v>130.81</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B612" s="1">
-        <v>130.77500000000001</v>
+        <v>130.82499999999999</v>
       </c>
     </row>
     <row r="613" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B613" s="1">
-        <v>130.48500000000001</v>
+        <v>130.77500000000001</v>
       </c>
     </row>
     <row r="614" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B614" s="1">
-        <v>130.15520000000001</v>
+        <v>130.48500000000001</v>
       </c>
     </row>
     <row r="615" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B615" s="1">
-        <v>129.2799</v>
+        <v>130.15520000000001</v>
       </c>
     </row>
     <row r="616" spans="1:2" ht="14" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B616" s="1">
+        <v>129.2799</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B616" s="1">
+      <c r="B617" s="1">
         <v>129.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499258E4-41B8-C74C-9E9F-B9ACBF502C2B}">
-  <dimension ref="A1:B336"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B336"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
-        <v>46508.46875</v>
-      </c>
-      <c r="B1" s="3">
-        <v>135.4914</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>46508.466666666667</v>
-      </c>
-      <c r="B2" s="3">
-        <v>135.54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>46508.464583333334</v>
-      </c>
-      <c r="B3" s="3">
-        <v>135.465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>46508.462500000001</v>
-      </c>
-      <c r="B4" s="3">
-        <v>135.5744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>46508.460416666669</v>
-      </c>
-      <c r="B5" s="3">
-        <v>135.5497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>46508.458333333336</v>
-      </c>
-      <c r="B6" s="3">
-        <v>135.52500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>46508.456250000003</v>
-      </c>
-      <c r="B7" s="3">
-        <v>135.19999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>46508.45416666667</v>
-      </c>
-      <c r="B8" s="3">
-        <v>135.26499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>46508.45208333333</v>
-      </c>
-      <c r="B9" s="3">
-        <v>135.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>46508.45</v>
-      </c>
-      <c r="B10" s="3">
-        <v>135.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>46508.447916666664</v>
-      </c>
-      <c r="B11" s="3">
-        <v>135.46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>46508.445833333331</v>
-      </c>
-      <c r="B12" s="3">
-        <v>135.52500000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>46508.443749999999</v>
-      </c>
-      <c r="B13" s="3">
-        <v>135.5701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>46508.441666666666</v>
-      </c>
-      <c r="B14" s="3">
-        <v>135.45849999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>46508.439583333333</v>
-      </c>
-      <c r="B15" s="3">
-        <v>135.30000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>46508.4375</v>
-      </c>
-      <c r="B16" s="3">
-        <v>135.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>46508.435416666667</v>
-      </c>
-      <c r="B17" s="3">
-        <v>135.255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>46508.433333333334</v>
-      </c>
-      <c r="B18" s="3">
-        <v>135.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>46508.431250000001</v>
-      </c>
-      <c r="B19" s="3">
-        <v>135.29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>46508.429166666669</v>
-      </c>
-      <c r="B20" s="3">
-        <v>135.35499999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>46508.427083333336</v>
-      </c>
-      <c r="B21" s="3">
-        <v>135.435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>46508.425000000003</v>
-      </c>
-      <c r="B22" s="3">
-        <v>135.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>46508.42291666667</v>
-      </c>
-      <c r="B23" s="3">
-        <v>135.25020000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>46508.42083333333</v>
-      </c>
-      <c r="B24" s="3">
-        <v>135.38999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>46508.418749999997</v>
-      </c>
-      <c r="B25" s="3">
-        <v>135.2499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>46508.416666666664</v>
-      </c>
-      <c r="B26" s="3">
-        <v>135.21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>46508.414583333331</v>
-      </c>
-      <c r="B27" s="3">
-        <v>135.05500000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>46508.412499999999</v>
-      </c>
-      <c r="B28" s="3">
-        <v>134.94499999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>46508.410416666666</v>
-      </c>
-      <c r="B29" s="3">
-        <v>135.03</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>46508.408333333333</v>
-      </c>
-      <c r="B30" s="3">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>46508.40625</v>
-      </c>
-      <c r="B31" s="3">
-        <v>134.92500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>46508.404166666667</v>
-      </c>
-      <c r="B32" s="3">
-        <v>135.04159999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>46508.402083333334</v>
-      </c>
-      <c r="B33" s="3">
-        <v>134.97499999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>46508.4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>135.035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>46508.397916666669</v>
-      </c>
-      <c r="B35" s="3">
-        <v>135.035</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>46508.395833333336</v>
-      </c>
-      <c r="B36" s="3">
-        <v>135.155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>46508.393750000003</v>
-      </c>
-      <c r="B37" s="3">
-        <v>135.20500000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>46508.39166666667</v>
-      </c>
-      <c r="B38" s="3">
-        <v>135.22499999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>46508.38958333333</v>
-      </c>
-      <c r="B39" s="3">
-        <v>135.04499999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>46508.387499999997</v>
-      </c>
-      <c r="B40" s="3">
-        <v>135.06010000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>46508.385416666664</v>
-      </c>
-      <c r="B41" s="3">
-        <v>135.27869999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>46508.383333333331</v>
-      </c>
-      <c r="B42" s="3">
-        <v>135.18029999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>46508.381249999999</v>
-      </c>
-      <c r="B43" s="3">
-        <v>134.99459999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>46508.379166666666</v>
-      </c>
-      <c r="B44" s="3">
-        <v>135.10990000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>46508.377083333333</v>
-      </c>
-      <c r="B45" s="3">
-        <v>135.07499999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>46508.375</v>
-      </c>
-      <c r="B46" s="3">
-        <v>135.36009999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>46508.372916666667</v>
-      </c>
-      <c r="B47" s="3">
-        <v>135.22190000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>46508.370833333334</v>
-      </c>
-      <c r="B48" s="3">
-        <v>135.22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>46508.368750000001</v>
-      </c>
-      <c r="B49" s="3">
-        <v>135.3287</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>46508.366666666669</v>
-      </c>
-      <c r="B50" s="3">
-        <v>135.33500000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>46508.364583333336</v>
-      </c>
-      <c r="B51" s="3">
-        <v>135.44499999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>46508.362500000003</v>
-      </c>
-      <c r="B52" s="3">
-        <v>135.36109999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>46508.36041666667</v>
-      </c>
-      <c r="B53" s="3">
-        <v>135.2115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>46508.35833333333</v>
-      </c>
-      <c r="B54" s="3">
-        <v>135.02000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>46508.356249999997</v>
-      </c>
-      <c r="B55" s="3">
-        <v>135.29499999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>46508.354166666664</v>
-      </c>
-      <c r="B56" s="3">
-        <v>135.41800000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>46508.352083333331</v>
-      </c>
-      <c r="B57" s="3">
-        <v>135.3115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>46508.35</v>
-      </c>
-      <c r="B58" s="3">
-        <v>135.09010000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>46508.347916666666</v>
-      </c>
-      <c r="B59" s="3">
-        <v>135.22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>46508.345833333333</v>
-      </c>
-      <c r="B60" s="3">
-        <v>135.19499999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>46508.34375</v>
-      </c>
-      <c r="B61" s="3">
-        <v>134.97999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>46508.341666666667</v>
-      </c>
-      <c r="B62" s="3">
-        <v>134.83500000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>46508.339583333334</v>
-      </c>
-      <c r="B63" s="3">
-        <v>134.86500000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>46508.337500000001</v>
-      </c>
-      <c r="B64" s="3">
-        <v>134.94499999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>46508.335416666669</v>
-      </c>
-      <c r="B65" s="3">
-        <v>134.81700000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>46508.333333333336</v>
-      </c>
-      <c r="B66" s="3">
-        <v>134.845</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>46508.331250000003</v>
-      </c>
-      <c r="B67" s="3">
-        <v>134.47999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>46508.32916666667</v>
-      </c>
-      <c r="B68" s="3">
-        <v>134.245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>46508.32708333333</v>
-      </c>
-      <c r="B69" s="3">
-        <v>134.13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>46508.324999999997</v>
-      </c>
-      <c r="B70" s="3">
-        <v>134.06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>46508.322916666664</v>
-      </c>
-      <c r="B71" s="3">
-        <v>133.97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>46508.320833333331</v>
-      </c>
-      <c r="B72" s="3">
-        <v>133.78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>46508.318749999999</v>
-      </c>
-      <c r="B73" s="3">
-        <v>133.9282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>46508.316666666666</v>
-      </c>
-      <c r="B74" s="3">
-        <v>133.76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>46508.314583333333</v>
-      </c>
-      <c r="B75" s="3">
-        <v>133.63499999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>46508.3125</v>
-      </c>
-      <c r="B76" s="3">
-        <v>133.685</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>45047.581250000003</v>
-      </c>
-      <c r="B77" s="3">
-        <v>131.29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>45047.57916666667</v>
-      </c>
-      <c r="B78" s="3">
-        <v>131.36500000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>45047.57708333333</v>
-      </c>
-      <c r="B79" s="3">
-        <v>131.33000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>45047.574999999997</v>
-      </c>
-      <c r="B80" s="3">
-        <v>131.55500000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>45047.572916666664</v>
-      </c>
-      <c r="B81" s="3">
-        <v>131.85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>45047.570833333331</v>
-      </c>
-      <c r="B82" s="3">
-        <v>131.91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>45047.568749999999</v>
-      </c>
-      <c r="B83" s="3">
-        <v>131.88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45047.566666666666</v>
-      </c>
-      <c r="B84" s="3">
-        <v>131.90029999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45047.564583333333</v>
-      </c>
-      <c r="B85" s="3">
-        <v>131.74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>45047.5625</v>
-      </c>
-      <c r="B86" s="3">
-        <v>131.63499999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>45047.560416666667</v>
-      </c>
-      <c r="B87" s="3">
-        <v>131.53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>45047.558333333334</v>
-      </c>
-      <c r="B88" s="3">
-        <v>131.40020000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>45047.556250000001</v>
-      </c>
-      <c r="B89" s="3">
-        <v>131.47499999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>45047.554166666669</v>
-      </c>
-      <c r="B90" s="3">
-        <v>131.78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>45047.552083333336</v>
-      </c>
-      <c r="B91" s="3">
-        <v>131.935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>45047.55</v>
-      </c>
-      <c r="B92" s="3">
-        <v>131.99160000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>45047.54791666667</v>
-      </c>
-      <c r="B93" s="3">
-        <v>132.065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>45047.54583333333</v>
-      </c>
-      <c r="B94" s="3">
-        <v>131.94499999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>45047.543749999997</v>
-      </c>
-      <c r="B95" s="3">
-        <v>131.64500000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>45047.541666666664</v>
-      </c>
-      <c r="B96" s="3">
-        <v>131.60499999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>45047.539583333331</v>
-      </c>
-      <c r="B97" s="3">
-        <v>131.85499999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>45047.537499999999</v>
-      </c>
-      <c r="B98" s="3">
-        <v>131.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>45047.535416666666</v>
-      </c>
-      <c r="B99" s="3">
-        <v>131.84819999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>45047.533333333333</v>
-      </c>
-      <c r="B100" s="3">
-        <v>131.78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>45047.53125</v>
-      </c>
-      <c r="B101" s="3">
-        <v>131.64500000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>45047.529166666667</v>
-      </c>
-      <c r="B102" s="3">
-        <v>131.93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>45047.527083333334</v>
-      </c>
-      <c r="B103" s="3">
-        <v>132.02000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>45047.525000000001</v>
-      </c>
-      <c r="B104" s="3">
-        <v>132.13499999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>45047.522916666669</v>
-      </c>
-      <c r="B105" s="3">
-        <v>132.30000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>45047.520833333336</v>
-      </c>
-      <c r="B106" s="3">
-        <v>132.2516</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>45047.518750000003</v>
-      </c>
-      <c r="B107" s="3">
-        <v>132.101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>45047.51666666667</v>
-      </c>
-      <c r="B108" s="3">
-        <v>132.16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>45047.51458333333</v>
-      </c>
-      <c r="B109" s="3">
-        <v>132.04</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>45047.512499999997</v>
-      </c>
-      <c r="B110" s="3">
-        <v>132.18819999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>45047.510416666664</v>
-      </c>
-      <c r="B111" s="3">
-        <v>132.36000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>45047.508333333331</v>
-      </c>
-      <c r="B112" s="3">
-        <v>132.44499999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>45047.506249999999</v>
-      </c>
-      <c r="B113" s="3">
-        <v>132.43</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>45047.504166666666</v>
-      </c>
-      <c r="B114" s="3">
-        <v>132.51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>45047.502083333333</v>
-      </c>
-      <c r="B115" s="3">
-        <v>132.35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>45047.5</v>
-      </c>
-      <c r="B116" s="3">
-        <v>132.03049999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>45047.497916666667</v>
-      </c>
-      <c r="B117" s="3">
-        <v>131.88499999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>45047.495833333334</v>
-      </c>
-      <c r="B118" s="3">
-        <v>131.8175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>45047.493750000001</v>
-      </c>
-      <c r="B119" s="3">
-        <v>131.91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>45047.491666666669</v>
-      </c>
-      <c r="B120" s="3">
-        <v>131.79</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>45047.489583333336</v>
-      </c>
-      <c r="B121" s="3">
-        <v>131.75110000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>45047.487500000003</v>
-      </c>
-      <c r="B122" s="3">
-        <v>131.61000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>45047.48541666667</v>
-      </c>
-      <c r="B123" s="3">
-        <v>131.6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>45047.48333333333</v>
-      </c>
-      <c r="B124" s="3">
-        <v>131.8297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>45047.481249999997</v>
-      </c>
-      <c r="B125" s="3">
-        <v>131.76990000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>45047.479166666664</v>
-      </c>
-      <c r="B126" s="3">
-        <v>131.875</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>45047.477083333331</v>
-      </c>
-      <c r="B127" s="3">
-        <v>131.93</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>45047.474999999999</v>
-      </c>
-      <c r="B128" s="3">
-        <v>131.86000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>45047.472916666666</v>
-      </c>
-      <c r="B129" s="3">
-        <v>131.86500000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>45047.470833333333</v>
-      </c>
-      <c r="B130" s="3">
-        <v>131.73009999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>45047.46875</v>
-      </c>
-      <c r="B131" s="3">
-        <v>131.69499999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>45047.466666666667</v>
-      </c>
-      <c r="B132" s="3">
-        <v>131.62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>45047.464583333334</v>
-      </c>
-      <c r="B133" s="3">
-        <v>131.68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>45047.462500000001</v>
-      </c>
-      <c r="B134" s="3">
-        <v>131.55500000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>45047.460416666669</v>
-      </c>
-      <c r="B135" s="3">
-        <v>131.43870000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>45047.458333333336</v>
-      </c>
-      <c r="B136" s="3">
-        <v>131.185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>45047.456250000003</v>
-      </c>
-      <c r="B137" s="3">
-        <v>131.05000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>45047.45416666667</v>
-      </c>
-      <c r="B138" s="3">
-        <v>131.06989999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>45047.45208333333</v>
-      </c>
-      <c r="B139" s="3">
-        <v>131.155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>45047.45</v>
-      </c>
-      <c r="B140" s="3">
-        <v>131.215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>45047.447916666664</v>
-      </c>
-      <c r="B141" s="3">
-        <v>131.17009999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>45047.445833333331</v>
-      </c>
-      <c r="B142" s="3">
-        <v>131.0411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>45047.443749999999</v>
-      </c>
-      <c r="B143" s="3">
-        <v>130.965</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>45047.441666666666</v>
-      </c>
-      <c r="B144" s="3">
-        <v>131.07</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>45047.439583333333</v>
-      </c>
-      <c r="B145" s="3">
-        <v>131.005</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>45047.4375</v>
-      </c>
-      <c r="B146" s="3">
-        <v>130.88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>45047.435416666667</v>
-      </c>
-      <c r="B147" s="3">
-        <v>131.005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>45047.433333333334</v>
-      </c>
-      <c r="B148" s="3">
-        <v>130.99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>45047.431250000001</v>
-      </c>
-      <c r="B149" s="3">
-        <v>131.03</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>45047.429166666669</v>
-      </c>
-      <c r="B150" s="3">
-        <v>131.05009999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>45047.427083333336</v>
-      </c>
-      <c r="B151" s="3">
-        <v>130.99</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>45047.425000000003</v>
-      </c>
-      <c r="B152" s="3">
-        <v>130.99</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>45047.42291666667</v>
-      </c>
-      <c r="B153" s="3">
-        <v>131.005</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>45047.42083333333</v>
-      </c>
-      <c r="B154" s="3">
-        <v>130.97499999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>45047.418749999997</v>
-      </c>
-      <c r="B155" s="3">
-        <v>130.79499999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>45047.416666666664</v>
-      </c>
-      <c r="B156" s="3">
-        <v>131.01499999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>45047.414583333331</v>
-      </c>
-      <c r="B157" s="3">
-        <v>130.69499999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>45047.412499999999</v>
-      </c>
-      <c r="B158" s="3">
-        <v>130.78</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>45047.410416666666</v>
-      </c>
-      <c r="B159" s="3">
-        <v>130.83000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>45047.408333333333</v>
-      </c>
-      <c r="B160" s="3">
-        <v>130.82</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>45047.40625</v>
-      </c>
-      <c r="B161" s="3">
-        <v>130.99</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>45047.404166666667</v>
-      </c>
-      <c r="B162" s="3">
-        <v>131.035</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>45047.402083333334</v>
-      </c>
-      <c r="B163" s="3">
-        <v>130.94999999999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>45047.4</v>
-      </c>
-      <c r="B164" s="3">
-        <v>130.94499999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>45047.397916666669</v>
-      </c>
-      <c r="B165" s="3">
-        <v>131.05500000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>45047.395833333336</v>
-      </c>
-      <c r="B166" s="3">
-        <v>131.10499999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>45047.393750000003</v>
-      </c>
-      <c r="B167" s="3">
-        <v>130.94999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>45047.39166666667</v>
-      </c>
-      <c r="B168" s="3">
-        <v>130.94999999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>45047.38958333333</v>
-      </c>
-      <c r="B169" s="3">
-        <v>130.97999999999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>45047.387499999997</v>
-      </c>
-      <c r="B170" s="3">
-        <v>130.69759999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>45047.385416666664</v>
-      </c>
-      <c r="B171" s="3">
-        <v>130.565</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>45047.383333333331</v>
-      </c>
-      <c r="B172" s="3">
-        <v>130.63499999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>45047.381249999999</v>
-      </c>
-      <c r="B173" s="3">
-        <v>130.9299</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>45047.379166666666</v>
-      </c>
-      <c r="B174" s="3">
-        <v>130.565</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>45047.377083333333</v>
-      </c>
-      <c r="B175" s="3">
-        <v>130.80099999999999</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>45047.375</v>
-      </c>
-      <c r="B176" s="3">
-        <v>131.25370000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>45047.372916666667</v>
-      </c>
-      <c r="B177" s="3">
-        <v>131.22</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>45047.370833333334</v>
-      </c>
-      <c r="B178" s="3">
-        <v>131.18090000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>45047.368750000001</v>
-      </c>
-      <c r="B179" s="3">
-        <v>131.185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>45047.366666666669</v>
-      </c>
-      <c r="B180" s="3">
-        <v>131.16820000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>45047.364583333336</v>
-      </c>
-      <c r="B181" s="3">
-        <v>130.995</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>45047.362500000003</v>
-      </c>
-      <c r="B182" s="3">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>45047.36041666667</v>
-      </c>
-      <c r="B183" s="3">
-        <v>131.0352</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>45047.35833333333</v>
-      </c>
-      <c r="B184" s="3">
-        <v>131.04929999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>45047.356249999997</v>
-      </c>
-      <c r="B185" s="3">
-        <v>131.26</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>45047.354166666664</v>
-      </c>
-      <c r="B186" s="3">
-        <v>130.68</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>45047.352083333331</v>
-      </c>
-      <c r="B187" s="3">
-        <v>130.53</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>45047.35</v>
-      </c>
-      <c r="B188" s="3">
-        <v>130.76</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>45047.347916666666</v>
-      </c>
-      <c r="B189" s="3">
-        <v>130.70480000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>45047.345833333333</v>
-      </c>
-      <c r="B190" s="3">
-        <v>130.37</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>45047.34375</v>
-      </c>
-      <c r="B191" s="3">
-        <v>130.88999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>45047.341666666667</v>
-      </c>
-      <c r="B192" s="3">
-        <v>130.965</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>45047.339583333334</v>
-      </c>
-      <c r="B193" s="3">
-        <v>130.7799</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>45047.337500000001</v>
-      </c>
-      <c r="B194" s="3">
-        <v>130.9624</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>45047.335416666669</v>
-      </c>
-      <c r="B195" s="3">
-        <v>130.82499999999999</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>45047.333333333336</v>
-      </c>
-      <c r="B196" s="3">
-        <v>130.62</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>45047.331250000003</v>
-      </c>
-      <c r="B197" s="3">
-        <v>130.37</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>45047.32916666667</v>
-      </c>
-      <c r="B198" s="3">
-        <v>130.3399</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>45047.32708333333</v>
-      </c>
-      <c r="B199" s="3">
-        <v>129.84</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>45047.324999999997</v>
-      </c>
-      <c r="B200" s="3">
-        <v>130.08519999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>45047.322916666664</v>
-      </c>
-      <c r="B201" s="3">
-        <v>129.82499999999999</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>45047.320833333331</v>
-      </c>
-      <c r="B202" s="3">
-        <v>130.29</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
-        <v>45047.318749999999</v>
-      </c>
-      <c r="B203" s="3">
-        <v>130.61500000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
-        <v>45047.316666666666</v>
-      </c>
-      <c r="B204" s="3">
-        <v>130.77000000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>45047.314583333333</v>
-      </c>
-      <c r="B205" s="3">
-        <v>130.82499999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>45047.3125</v>
-      </c>
-      <c r="B206" s="3">
-        <v>130.15520000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>44682.581250000003</v>
-      </c>
-      <c r="B207" s="3">
-        <v>132.83000000000001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>44682.57916666667</v>
-      </c>
-      <c r="B208" s="3">
-        <v>133.07</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>44682.57708333333</v>
-      </c>
-      <c r="B209" s="3">
-        <v>133.40479999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>44682.574999999997</v>
-      </c>
-      <c r="B210" s="3">
-        <v>133.62</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>44682.572916666664</v>
-      </c>
-      <c r="B211" s="3">
-        <v>133.18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>44682.570833333331</v>
-      </c>
-      <c r="B212" s="3">
-        <v>133.29</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>44682.568749999999</v>
-      </c>
-      <c r="B213" s="3">
-        <v>133.44499999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>44682.566666666666</v>
-      </c>
-      <c r="B214" s="3">
-        <v>133.52500000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>44682.564583333333</v>
-      </c>
-      <c r="B215" s="3">
-        <v>133.69499999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>44682.5625</v>
-      </c>
-      <c r="B216" s="3">
-        <v>133.73500000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>44682.560416666667</v>
-      </c>
-      <c r="B217" s="3">
-        <v>133.91499999999999</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>44682.558333333334</v>
-      </c>
-      <c r="B218" s="3">
-        <v>133.82</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>44682.556250000001</v>
-      </c>
-      <c r="B219" s="3">
-        <v>133.815</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>44682.554166666669</v>
-      </c>
-      <c r="B220" s="3">
-        <v>133.93</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>44682.552083333336</v>
-      </c>
-      <c r="B221" s="3">
-        <v>133.89500000000001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>44682.55</v>
-      </c>
-      <c r="B222" s="3">
-        <v>134.02000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>44682.54791666667</v>
-      </c>
-      <c r="B223" s="3">
-        <v>134.04499999999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>44682.54583333333</v>
-      </c>
-      <c r="B224" s="3">
-        <v>133.995</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>44682.543749999997</v>
-      </c>
-      <c r="B225" s="3">
-        <v>134.19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>44682.541666666664</v>
-      </c>
-      <c r="B226" s="3">
-        <v>134.08189999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>44682.539583333331</v>
-      </c>
-      <c r="B227" s="3">
-        <v>133.93</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>44682.537499999999</v>
-      </c>
-      <c r="B228" s="3">
-        <v>133.97499999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>44682.535416666666</v>
-      </c>
-      <c r="B229" s="3">
-        <v>133.92009999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>44682.533333333333</v>
-      </c>
-      <c r="B230" s="3">
-        <v>133.745</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>44682.53125</v>
-      </c>
-      <c r="B231" s="3">
-        <v>133.69499999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>44682.529166666667</v>
-      </c>
-      <c r="B232" s="3">
-        <v>133.535</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>44682.527083333334</v>
-      </c>
-      <c r="B233" s="3">
-        <v>133.505</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>44682.525000000001</v>
-      </c>
-      <c r="B234" s="3">
-        <v>133.47999999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>44682.522916666669</v>
-      </c>
-      <c r="B235" s="3">
-        <v>133.58009999999999</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>44682.520833333336</v>
-      </c>
-      <c r="B236" s="3">
-        <v>133.4419</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>44682.518750000003</v>
-      </c>
-      <c r="B237" s="3">
-        <v>133.315</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>44682.51666666667</v>
-      </c>
-      <c r="B238" s="3">
-        <v>133.31</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>44682.51458333333</v>
-      </c>
-      <c r="B239" s="3">
-        <v>133.41</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>44682.512499999997</v>
-      </c>
-      <c r="B240" s="3">
-        <v>133.31100000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>44682.510416666664</v>
-      </c>
-      <c r="B241" s="3">
-        <v>133.36000000000001</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>44682.508333333331</v>
-      </c>
-      <c r="B242" s="3">
-        <v>133.255</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>44682.506249999999</v>
-      </c>
-      <c r="B243" s="3">
-        <v>133.22999999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>44682.504166666666</v>
-      </c>
-      <c r="B244" s="3">
-        <v>133.36000000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>44682.502083333333</v>
-      </c>
-      <c r="B245" s="3">
-        <v>133.19999999999999</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="2">
-        <v>44682.5</v>
-      </c>
-      <c r="B246" s="3">
-        <v>133.405</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>44682.497916666667</v>
-      </c>
-      <c r="B247" s="3">
-        <v>133.41999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>44682.495833333334</v>
-      </c>
-      <c r="B248" s="3">
-        <v>133.43</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>44682.493750000001</v>
-      </c>
-      <c r="B249" s="3">
-        <v>133.4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="2">
-        <v>44682.491666666669</v>
-      </c>
-      <c r="B250" s="3">
-        <v>133.51</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>44682.489583333336</v>
-      </c>
-      <c r="B251" s="3">
-        <v>133.565</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>44682.487500000003</v>
-      </c>
-      <c r="B252" s="3">
-        <v>133.69</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>44682.48541666667</v>
-      </c>
-      <c r="B253" s="3">
-        <v>133.56389999999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>44682.48333333333</v>
-      </c>
-      <c r="B254" s="3">
-        <v>133.52000000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>44682.481249999997</v>
-      </c>
-      <c r="B255" s="3">
-        <v>133.65</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>44682.479166666664</v>
-      </c>
-      <c r="B256" s="3">
-        <v>133.405</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>44682.477083333331</v>
-      </c>
-      <c r="B257" s="3">
-        <v>133.51</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="2">
-        <v>44682.474999999999</v>
-      </c>
-      <c r="B258" s="3">
-        <v>133.54499999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>44682.472916666666</v>
-      </c>
-      <c r="B259" s="3">
-        <v>133.61000000000001</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>44682.470833333333</v>
-      </c>
-      <c r="B260" s="3">
-        <v>133.39500000000001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>44682.46875</v>
-      </c>
-      <c r="B261" s="3">
-        <v>133.51</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>44682.466666666667</v>
-      </c>
-      <c r="B262" s="3">
-        <v>133.0735</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>44682.464583333334</v>
-      </c>
-      <c r="B263" s="3">
-        <v>133.22499999999999</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>44682.462500000001</v>
-      </c>
-      <c r="B264" s="3">
-        <v>133.15</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>44682.460416666669</v>
-      </c>
-      <c r="B265" s="3">
-        <v>133.255</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>44682.458333333336</v>
-      </c>
-      <c r="B266" s="3">
-        <v>133.16999999999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="2">
-        <v>44682.456250000003</v>
-      </c>
-      <c r="B267" s="3">
-        <v>133.19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="2">
-        <v>44682.45416666667</v>
-      </c>
-      <c r="B268" s="3">
-        <v>133.04900000000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>44682.45208333333</v>
-      </c>
-      <c r="B269" s="3">
-        <v>133.21</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>44682.45</v>
-      </c>
-      <c r="B270" s="3">
-        <v>133.11000000000001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>44682.447916666664</v>
-      </c>
-      <c r="B271" s="3">
-        <v>133.05500000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>44682.445833333331</v>
-      </c>
-      <c r="B272" s="3">
-        <v>133.37</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>44682.443749999999</v>
-      </c>
-      <c r="B273" s="3">
-        <v>133.38</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>44682.441666666666</v>
-      </c>
-      <c r="B274" s="3">
-        <v>133.48500000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>44682.439583333333</v>
-      </c>
-      <c r="B275" s="3">
-        <v>133.465</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>44682.4375</v>
-      </c>
-      <c r="B276" s="3">
-        <v>133.32499999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>44682.435416666667</v>
-      </c>
-      <c r="B277" s="3">
-        <v>133.41</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>44682.433333333334</v>
-      </c>
-      <c r="B278" s="3">
-        <v>133.33009999999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>44682.431250000001</v>
-      </c>
-      <c r="B279" s="3">
-        <v>133.47999999999999</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>44682.429166666669</v>
-      </c>
-      <c r="B280" s="3">
-        <v>133.43</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>44682.427083333336</v>
-      </c>
-      <c r="B281" s="3">
-        <v>133.72149999999999</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>44682.425000000003</v>
-      </c>
-      <c r="B282" s="3">
-        <v>133.54499999999999</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>44682.42291666667</v>
-      </c>
-      <c r="B283" s="3">
-        <v>133.375</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>44682.42083333333</v>
-      </c>
-      <c r="B284" s="3">
-        <v>133.33500000000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>44682.418749999997</v>
-      </c>
-      <c r="B285" s="3">
-        <v>133.245</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>44682.416666666664</v>
-      </c>
-      <c r="B286" s="3">
-        <v>133.32499999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>44682.414583333331</v>
-      </c>
-      <c r="B287" s="3">
-        <v>133.48500000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>44682.412499999999</v>
-      </c>
-      <c r="B288" s="3">
-        <v>133.1713</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>44682.410416666666</v>
-      </c>
-      <c r="B289" s="3">
-        <v>133.0558</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>44682.408333333333</v>
-      </c>
-      <c r="B290" s="3">
-        <v>133.05000000000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>44682.40625</v>
-      </c>
-      <c r="B291" s="3">
-        <v>133.02029999999999</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>44682.404166666667</v>
-      </c>
-      <c r="B292" s="3">
-        <v>133.0275</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>44682.402083333334</v>
-      </c>
-      <c r="B293" s="3">
-        <v>132.81440000000001</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>44682.400000000001</v>
-      </c>
-      <c r="B294" s="3">
-        <v>133.02000000000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>44682.397916666669</v>
-      </c>
-      <c r="B295" s="3">
-        <v>133.07499999999999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>44682.395833333336</v>
-      </c>
-      <c r="B296" s="3">
-        <v>132.91999999999999</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
-        <v>44682.393750000003</v>
-      </c>
-      <c r="B297" s="3">
-        <v>132.84</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
-        <v>44682.39166666667</v>
-      </c>
-      <c r="B298" s="3">
-        <v>133.24</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="2">
-        <v>44682.38958333333</v>
-      </c>
-      <c r="B299" s="3">
-        <v>133.28360000000001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>44682.387499999997</v>
-      </c>
-      <c r="B300" s="3">
-        <v>133.20500000000001</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
-        <v>44682.385416666664</v>
-      </c>
-      <c r="B301" s="3">
-        <v>133.01</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>44682.383333333331</v>
-      </c>
-      <c r="B302" s="3">
-        <v>133.23990000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="2">
-        <v>44682.381249999999</v>
-      </c>
-      <c r="B303" s="3">
-        <v>133.215</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="2">
-        <v>44682.379166666666</v>
-      </c>
-      <c r="B304" s="3">
-        <v>133.37</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>44682.377083333333</v>
-      </c>
-      <c r="B305" s="3">
-        <v>133.36000000000001</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="2">
-        <v>44682.375</v>
-      </c>
-      <c r="B306" s="3">
-        <v>133.245</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>44682.372916666667</v>
-      </c>
-      <c r="B307" s="3">
-        <v>133.19</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="2">
-        <v>44682.370833333334</v>
-      </c>
-      <c r="B308" s="3">
-        <v>132.69499999999999</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="2">
-        <v>44682.368750000001</v>
-      </c>
-      <c r="B309" s="3">
-        <v>132.935</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="2">
-        <v>44682.366666666669</v>
-      </c>
-      <c r="B310" s="3">
-        <v>132.94</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="2">
-        <v>44682.364583333336</v>
-      </c>
-      <c r="B311" s="3">
-        <v>132.9111</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="2">
-        <v>44682.362500000003</v>
-      </c>
-      <c r="B312" s="3">
-        <v>132.8201</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="2">
-        <v>44682.36041666667</v>
-      </c>
-      <c r="B313" s="3">
-        <v>133.05500000000001</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="2">
-        <v>44682.35833333333</v>
-      </c>
-      <c r="B314" s="3">
-        <v>132.8501</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="2">
-        <v>44682.356249999997</v>
-      </c>
-      <c r="B315" s="3">
-        <v>133.31</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>44682.354166666664</v>
-      </c>
-      <c r="B316" s="3">
-        <v>133.08500000000001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>44682.352083333331</v>
-      </c>
-      <c r="B317" s="3">
-        <v>133.035</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="2">
-        <v>44682.35</v>
-      </c>
-      <c r="B318" s="3">
-        <v>132.84989999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="2">
-        <v>44682.347916666666</v>
-      </c>
-      <c r="B319" s="3">
-        <v>132.78</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="2">
-        <v>44682.345833333333</v>
-      </c>
-      <c r="B320" s="3">
-        <v>133.03</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="2">
-        <v>44682.34375</v>
-      </c>
-      <c r="B321" s="3">
-        <v>132.86500000000001</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="2">
-        <v>44682.341666666667</v>
-      </c>
-      <c r="B322" s="3">
-        <v>132.84100000000001</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="2">
-        <v>44682.339583333334</v>
-      </c>
-      <c r="B323" s="3">
-        <v>133.08500000000001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="2">
-        <v>44682.337500000001</v>
-      </c>
-      <c r="B324" s="3">
-        <v>133.32499999999999</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="2">
-        <v>44682.335416666669</v>
-      </c>
-      <c r="B325" s="3">
-        <v>133.57499999999999</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="2">
-        <v>44682.333333333336</v>
-      </c>
-      <c r="B326" s="3">
-        <v>133.6635</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="2">
-        <v>44682.331250000003</v>
-      </c>
-      <c r="B327" s="3">
-        <v>133.49</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="2">
-        <v>44682.32916666667</v>
-      </c>
-      <c r="B328" s="3">
-        <v>133.04</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="2">
-        <v>44682.32708333333</v>
-      </c>
-      <c r="B329" s="3">
-        <v>133.0454</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="2">
-        <v>44682.324999999997</v>
-      </c>
-      <c r="B330" s="3">
-        <v>132.42500000000001</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="2">
-        <v>44682.322916666664</v>
-      </c>
-      <c r="B331" s="3">
-        <v>132.1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="2">
-        <v>44682.320833333331</v>
-      </c>
-      <c r="B332" s="3">
-        <v>131.97900000000001</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="2">
-        <v>44682.318749999999</v>
-      </c>
-      <c r="B333" s="3">
-        <v>132.32079999999999</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="2">
-        <v>44682.316666666666</v>
-      </c>
-      <c r="B334" s="3">
-        <v>131.85659999999999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
-        <v>44682.314583333333</v>
-      </c>
-      <c r="B335" s="3">
-        <v>132.97499999999999</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="2">
-        <v>44682.3125</v>
-      </c>
-      <c r="B336" s="3">
-        <v>132.52000000000001</v>
       </c>
     </row>
   </sheetData>
